--- a/Technology/Software/Alteryx.xlsx
+++ b/Technology/Software/Alteryx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D8319A-0487-AB4F-B0B8-77884361A440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C664A642-906E-0640-BB28-B40B49AA14EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27700" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -893,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -981,7 +981,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1013,6 +1012,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1025,12 +1030,8 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2264,39 +2265,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>72.33</v>
-    <v>39.549999999999997</v>
-    <v>0.51100000000000001</v>
-    <v>1.41</v>
-    <v>2.7799999999999998E-2</v>
-    <v>0.1</v>
-    <v>1.918E-3</v>
+    <v>70.63</v>
+    <v>34.700000000000003</v>
+    <v>0.49780000000000002</v>
+    <v>-2.5499999999999998</v>
+    <v>-6.4086000000000004E-2</v>
+    <v>0.02</v>
+    <v>5.3709999999999999E-4</v>
     <v>USD</v>
     <v>Alteryx Inc. is a self-service data analytics software company that provides a subscription-based platform, enabling organizations to prepare, blend and analyze data from multitude sources and ease data-driven decisions. The Company’s platform is comprised of Alteryx Designer, Alteryx Server, Alteryx Connect, Alteryx Promote and Alteryx Intelligence Suite. The Company democratizes access to data-driven insights to all data workers, business analysts, programmers and data scientists by expanding the capabilities and analytical sophistications. The Company’s platform allows business analysts to view underlying data, meta-data and applied analytics at any stage during the process. The Company’s platform is designed to interact with a wide variety of traditional data sources. Its platform is also capable of processing data from cloud applications, such as Google Analytics, Marketo, NetSuite, salesforce.com, and Workday, as well as social media platforms, such as Facebook and Twitter.</v>
-    <v>2900</v>
+    <v>2850</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>17200 Laguna Canyon Road, IRVINE, CA, 92618 US</v>
-    <v>52.5899</v>
+    <v>40.46</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.958333356248</v>
+    <v>45071.999498193749</v>
     <v>0</v>
-    <v>50.634999999999998</v>
-    <v>3624277000</v>
+    <v>37.229999999999997</v>
+    <v>2623545710</v>
     <v>ALTERYX, INC.</v>
     <v>ALTERYX, INC.</v>
-    <v>50.72</v>
+    <v>40.28</v>
     <v>0</v>
-    <v>50.72</v>
-    <v>52.13</v>
-    <v>52.23</v>
-    <v>69523820</v>
+    <v>39.79</v>
+    <v>37.24</v>
+    <v>37.26</v>
+    <v>70449670</v>
     <v>AYX</v>
     <v>ALTERYX, INC. (XNYS:AYX)</v>
-    <v>908347</v>
-    <v>924314</v>
+    <v>2054785</v>
+    <v>2259929</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2461,9 +2462,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2884,10 +2885,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O100" sqref="O100"/>
+      <selection pane="bottomRight" activeCell="L123" sqref="L123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3652,15 +3653,15 @@
       </c>
       <c r="Q16" s="32">
         <f>R101/J3</f>
-        <v>4.2371661323849539</v>
+        <v>3.0672045843007689</v>
       </c>
       <c r="R16" s="32">
         <f>R101/J28</f>
-        <v>-11.379241379093813</v>
+        <v>-8.2372180446406418</v>
       </c>
       <c r="S16" s="33">
         <f>R101/J106</f>
-        <v>-25.819455724157585</v>
+        <v>-18.690216641732565</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5900,10 +5901,10 @@
       <c r="J83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q83" s="61" t="s">
+      <c r="Q83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="R83" s="62"/>
+      <c r="R83" s="63"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5936,10 +5937,10 @@
       <c r="J84" s="1">
         <v>4980000</v>
       </c>
-      <c r="Q84" s="63" t="s">
+      <c r="Q84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="R84" s="64"/>
+      <c r="R84" s="65"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6306,10 +6307,10 @@
       <c r="J93" s="1">
         <v>-11890000</v>
       </c>
-      <c r="Q93" s="63" t="s">
+      <c r="Q93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="R93" s="64"/>
+      <c r="R93" s="65"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6385,7 +6386,7 @@
       </c>
       <c r="R95" s="40" cm="1">
         <f t="array" ref="R95">_FV(A1,"Beta")</f>
-        <v>0.51100000000000001</v>
+        <v>0.49780000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -6462,7 +6463,7 @@
       </c>
       <c r="R97" s="38">
         <f>(R94)+((R95)*(R96-R94))</f>
-        <v>6.2948550000000006E-2</v>
+        <v>6.2380290000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -6496,10 +6497,10 @@
       <c r="J98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q98" s="63" t="s">
+      <c r="Q98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="R98" s="64"/>
+      <c r="R98" s="65"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6576,7 +6577,7 @@
       </c>
       <c r="R100" s="36">
         <f>R99/R103</f>
-        <v>0.20573087993646333</v>
+        <v>0.26352533078245899</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -6615,7 +6616,7 @@
       </c>
       <c r="R101" s="41" cm="1">
         <f t="array" ref="R101">_FV(A1,"Market cap",TRUE)</f>
-        <v>3624277000</v>
+        <v>2623545710</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -6654,7 +6655,7 @@
       </c>
       <c r="R102" s="36">
         <f>R101/R103</f>
-        <v>0.79426912006353667</v>
+        <v>0.73647466921754101</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -6693,7 +6694,7 @@
       </c>
       <c r="R103" s="42">
         <f>R99+R101</f>
-        <v>4563034000</v>
+        <v>3562302710</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6727,10 +6728,10 @@
       <c r="J104" s="11">
         <v>109451000</v>
       </c>
-      <c r="Q104" s="63" t="s">
+      <c r="Q104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="R104" s="64"/>
+      <c r="R104" s="65"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -6769,18 +6770,28 @@
         <f t="shared" si="8"/>
         <v>-5.6188016189003323</v>
       </c>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="15"/>
+      <c r="K105" s="66">
+        <v>82928000</v>
+      </c>
+      <c r="L105" s="66">
+        <v>113700000</v>
+      </c>
+      <c r="M105" s="66">
+        <v>155600000</v>
+      </c>
+      <c r="N105" s="66">
+        <v>199200000</v>
+      </c>
+      <c r="O105" s="66">
+        <v>257400000</v>
+      </c>
       <c r="P105" s="15"/>
       <c r="Q105" s="27" t="s">
         <v>108</v>
       </c>
       <c r="R105" s="28">
         <f>(R100*R92)+(R102*R97)</f>
-        <v>5.2164972211982269E-2</v>
+        <v>4.8717112556118561E-2</v>
       </c>
       <c r="S105" s="15"/>
       <c r="AH105" s="15"/>
@@ -6879,69 +6890,69 @@
       <c r="L107" s="44"/>
       <c r="M107" s="44"/>
       <c r="N107" s="44"/>
-      <c r="O107" s="47">
-        <f>O106*(1+R107)/(R108-R107)</f>
-        <v>-11693805333.356096</v>
-      </c>
-      <c r="P107" s="48" t="s">
+      <c r="O107" s="67">
+        <f>O105*(1+R107)/(R108-R107)</f>
+        <v>11124246232.576723</v>
+      </c>
+      <c r="P107" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="Q107" s="49" t="s">
+      <c r="Q107" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="R107" s="50">
+      <c r="R107" s="49">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="K108" s="47">
-        <f t="shared" ref="K108:M108" si="10">K107+K106</f>
-        <v>-164462804.5225541</v>
-      </c>
-      <c r="L108" s="47">
-        <f t="shared" si="10"/>
-        <v>-192690846.13110951</v>
-      </c>
-      <c r="M108" s="47">
-        <f t="shared" si="10"/>
-        <v>-225763888.01414984</v>
-      </c>
-      <c r="N108" s="47">
-        <f>N107+N106</f>
-        <v>-264513515.58540231</v>
-      </c>
-      <c r="O108" s="47">
-        <f>O107+O106</f>
-        <v>-12003719379.144339</v>
-      </c>
-      <c r="P108" s="48" t="s">
+      <c r="K108" s="67">
+        <f>K107+K105</f>
+        <v>82928000</v>
+      </c>
+      <c r="L108" s="67">
+        <f>L107+L105</f>
+        <v>113700000</v>
+      </c>
+      <c r="M108" s="67">
+        <f>M107+M105</f>
+        <v>155600000</v>
+      </c>
+      <c r="N108" s="67">
+        <f>N107+N105</f>
+        <v>199200000</v>
+      </c>
+      <c r="O108" s="67">
+        <f>O107+O105</f>
+        <v>11381646232.576723</v>
+      </c>
+      <c r="P108" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="Q108" s="51" t="s">
+      <c r="Q108" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="R108" s="52">
+      <c r="R108" s="51">
         <f>R105</f>
-        <v>5.2164972211982269E-2</v>
+        <v>4.8717112556118561E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="K109" s="65" t="s">
+      <c r="K109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="L109" s="66"/>
+      <c r="L109" s="61"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="K110" s="53" t="s">
+      <c r="K110" s="52" t="s">
         <v>152</v>
       </c>
       <c r="L110" s="41">
         <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>-10048881962.448465</v>
+        <v>9454546842.7814789</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="K111" s="53" t="s">
+      <c r="K111" s="52" t="s">
         <v>153</v>
       </c>
       <c r="L111" s="41">
@@ -6950,7 +6961,7 @@
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="K112" s="53" t="s">
+      <c r="K112" s="52" t="s">
         <v>140</v>
       </c>
       <c r="L112" s="41">
@@ -6959,57 +6970,57 @@
       </c>
     </row>
     <row r="113" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K113" s="53" t="s">
+      <c r="K113" s="52" t="s">
         <v>154</v>
       </c>
       <c r="L113" s="41">
         <f>L110+L111-L112</f>
-        <v>-10645847962.448465</v>
+        <v>8857580842.7814789</v>
       </c>
     </row>
     <row r="114" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K114" s="53" t="s">
+      <c r="K114" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="L114" s="54">
+      <c r="L114" s="53">
         <f>J34*(1+(5*P16))</f>
         <v>87771890.910133898</v>
       </c>
     </row>
     <row r="115" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K115" s="55" t="s">
+      <c r="K115" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="L115" s="56">
+      <c r="L115" s="55">
         <f>L113/L114</f>
-        <v>-121.28994661113454</v>
+        <v>100.91591682638351</v>
       </c>
     </row>
     <row r="116" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K116" s="53" t="s">
+      <c r="K116" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="L116" s="57" cm="1">
+      <c r="L116" s="56" cm="1">
         <f t="array" ref="L116">_FV(A1,"Price")</f>
-        <v>52.13</v>
+        <v>37.24</v>
       </c>
     </row>
     <row r="117" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K117" s="58" t="s">
+      <c r="K117" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="L117" s="59">
+      <c r="L117" s="58">
         <f>L115/L116-1</f>
-        <v>-3.3266822676219938</v>
+        <v>1.7098796140274839</v>
       </c>
     </row>
     <row r="118" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K118" s="58" t="s">
+      <c r="K118" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="L118" s="60" t="str">
+      <c r="L118" s="59" t="str">
         <f>IF(L115&gt;L116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
